--- a/data/trans_bre/IMC_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Provincia-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/IMC_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-3.962478256146973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.603408988031866</v>
+        <v>2.603408988031861</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1479584341697229</v>
@@ -649,7 +649,7 @@
         <v>-0.2209591929035819</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.150646128878143</v>
+        <v>0.1506461288781427</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.291381308711975</v>
+        <v>-6.473524127863463</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.575392511467524</v>
+        <v>-7.68300234806761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.54680921025341</v>
+        <v>-10.13689072303116</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.431184218154263</v>
+        <v>-3.183776178992614</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.525677984825078</v>
+        <v>-0.5388823122383793</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3133761769414492</v>
+        <v>-0.3159436623120893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.483640700128088</v>
+        <v>-0.471309503353353</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1701507682744399</v>
+        <v>-0.1517978169749784</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.609510051988894</v>
+        <v>3.50688802759066</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.317317884947833</v>
+        <v>6.770798850558384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.305904554726508</v>
+        <v>3.482054342791007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.799244284816047</v>
+        <v>8.214946371579845</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4942994668711936</v>
+        <v>0.4787215499103981</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3695016480759485</v>
+        <v>0.3948210776132419</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.17626697130771</v>
+        <v>0.2904290703306598</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5524547488512965</v>
+        <v>0.5916243598882612</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.856711263630276</v>
+        <v>-1.330214338271788</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1508541019039193</v>
+        <v>0.4060617191769504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.000920422869551</v>
+        <v>3.2362521397771</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-11.4296217977652</v>
+        <v>-11.38024858015487</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1193556697389297</v>
+        <v>-0.08705524462188745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004952247948353107</v>
+        <v>0.01729342052066323</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1780639639200046</v>
+        <v>0.2020077962340618</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4699145451162621</v>
+        <v>-0.4731152918065908</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.516847066157411</v>
+        <v>8.232242729457431</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.53398748388611</v>
+        <v>10.27729982846265</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.10251569968003</v>
+        <v>13.36397177821157</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.592024411942584</v>
+        <v>-1.320952552099802</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6233885350178435</v>
+        <v>0.7506274026215884</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8353625191558008</v>
+        <v>0.8405810833604305</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.067017232717437</v>
+        <v>1.126238704749286</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.08997220952041429</v>
+        <v>-0.07156646968418498</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.2182731965062273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.225174223342534</v>
+        <v>1.225174223342537</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7249990555925313</v>
@@ -849,7 +849,7 @@
         <v>0.01267028709146091</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.05739955273554507</v>
+        <v>0.0573995527355452</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8663237672683064</v>
+        <v>0.9290513955067919</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2854345684633661</v>
+        <v>0.7183672293542468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.590404245931183</v>
+        <v>-5.176115358197576</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.813849157469043</v>
+        <v>-3.857247046794716</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07309505740393411</v>
+        <v>0.06874294875754342</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004326515055798458</v>
+        <v>0.03375846053204844</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2869058795003908</v>
+        <v>-0.2641443998408405</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1947745008191592</v>
+        <v>-0.1623535020090294</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.14567674668152</v>
+        <v>10.95297339398152</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.79534231402996</v>
+        <v>12.87948304963035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.291778160591859</v>
+        <v>6.646164006492544</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.921663384787029</v>
+        <v>6.914536120663159</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.802062944779647</v>
+        <v>1.802510067741024</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9829588068263583</v>
+        <v>1.020513049808704</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4284717526263567</v>
+        <v>0.4984839333783396</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3868167833754025</v>
+        <v>0.3792282812788312</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.917400850246864</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.364924799390953</v>
+        <v>4.364924799390947</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3040030478703441</v>
@@ -949,7 +949,7 @@
         <v>-0.08714463497716302</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3502824266780834</v>
+        <v>0.3502824266780829</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.702210778963851</v>
+        <v>-1.447995007441518</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.2368893437421892</v>
+        <v>-0.1359007828448543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.159229842479323</v>
+        <v>-7.611625709399338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.357867212036623</v>
+        <v>-1.297266176047275</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.149812822471105</v>
+        <v>-0.1358218028234094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.007563587002955329</v>
+        <v>-0.01226286498912227</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3189875389080797</v>
+        <v>-0.3068325105969344</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09916637331163104</v>
+        <v>-0.09335399904566838</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.905372594993919</v>
+        <v>7.910175126394538</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.40044849092582</v>
+        <v>13.14998660080093</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.922137443158543</v>
+        <v>4.759098968697669</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.765656425302032</v>
+        <v>9.962412463940939</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9713133465216119</v>
+        <v>1.166748054133266</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.806707276565739</v>
+        <v>0.8377623768609753</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2200364315821955</v>
+        <v>0.2473302368839175</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.050830023367018</v>
+        <v>1.068078203775003</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.524021559684623</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.757079414731448</v>
+        <v>3.75707941473145</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2722936065671621</v>
@@ -1049,7 +1049,7 @@
         <v>0.6579966195550536</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3427615555422769</v>
+        <v>0.3427615555422771</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.16703040478383</v>
+        <v>-3.011813290837439</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.635451496040572</v>
+        <v>-7.434706160856461</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.505178076889135</v>
+        <v>2.441843443237024</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.54270306759269</v>
+        <v>-1.294416647138417</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1781101665834728</v>
+        <v>-0.1609960017131702</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3761121767193853</v>
+        <v>-0.3159748872423405</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1233822211869565</v>
+        <v>0.1253511076799591</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1186852588675704</v>
+        <v>-0.08938759251072265</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.88888612924781</v>
+        <v>12.95512255660562</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.690498023056826</v>
+        <v>8.233812370321459</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.53166080074445</v>
+        <v>17.39300488870374</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.388737104661505</v>
+        <v>8.360649402172836</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9909992708934384</v>
+        <v>1.064881484810059</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6167987327043472</v>
+        <v>0.5325873818178299</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.491099765421821</v>
+        <v>1.557802937886014</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.024467811495439</v>
+        <v>1.040979690971182</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.1758466744403914</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-4.147862467929827</v>
+        <v>-4.14786246792983</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4374716247475648</v>
@@ -1149,7 +1149,7 @@
         <v>0.009185762943589294</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2079009986098377</v>
+        <v>-0.2079009986098378</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.179865197840371</v>
+        <v>-0.9378139412114352</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-6.320789974301041</v>
+        <v>-5.94916465813522</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-6.622809203525382</v>
+        <v>-6.296598572333606</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-9.801373233878687</v>
+        <v>-9.720723973501173</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1380234949607436</v>
+        <v>-0.1037253593781117</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2459892956513681</v>
+        <v>-0.2226057132884204</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3050200472509435</v>
+        <v>-0.2790698062025552</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4297387699963854</v>
+        <v>-0.4126502916988984</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.475238127049693</v>
+        <v>9.04234210019958</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.033640248885115</v>
+        <v>8.902280389354205</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.21325193581466</v>
+        <v>7.227316663907002</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6161951136665651</v>
+        <v>1.669388924561501</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.322106876973141</v>
+        <v>1.422990586486296</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4167530580882771</v>
+        <v>0.464065700443103</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4659225268101371</v>
+        <v>0.4672178278239897</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.03811926854530857</v>
+        <v>0.1048198618368891</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-0.7061255418221557</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6529318557253222</v>
+        <v>0.6529318557253166</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4198897835579212</v>
@@ -1249,7 +1249,7 @@
         <v>-0.04919376883677892</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.03845688832089615</v>
+        <v>0.03845688832089583</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9236362898243614</v>
+        <v>0.667868027418154</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.391059897466421</v>
+        <v>1.497503959975163</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.921747858301915</v>
+        <v>-5.37895409485754</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.31798308427916</v>
+        <v>-3.200488067446035</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.06787264460997325</v>
+        <v>0.04600721726022608</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08192716917552963</v>
+        <v>0.1025210392560621</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2901433129333754</v>
+        <v>-0.3173305006606856</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.173100500840255</v>
+        <v>-0.1631576286271265</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.642249283151267</v>
+        <v>8.761115108851218</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.11269303283838</v>
+        <v>9.980716766805465</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.575600014084791</v>
+        <v>3.141447743122572</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.661350269295275</v>
+        <v>5.025285467573434</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8809986920056251</v>
+        <v>0.8753583147447942</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8052071606944394</v>
+        <v>0.8410860817128841</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2979841085448593</v>
+        <v>0.2497680761718085</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3223357232170329</v>
+        <v>0.3439097925695672</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.1262181643874623</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.09285941163196908</v>
+        <v>0.09285941163196906</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-4.142272762060398</v>
+        <v>-3.917386278104799</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.79665161299527</v>
+        <v>1.528104025485793</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-2.047046531211109</v>
+        <v>-1.972952012819123</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.064248481974411</v>
+        <v>-1.625077757135596</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.234310436574891</v>
+        <v>-0.2271155100742353</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.117576019747628</v>
+        <v>0.1140466050975604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1036282777317353</v>
+        <v>-0.09734216533745481</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1177636763861574</v>
+        <v>-0.09630259874849062</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.514115891746376</v>
+        <v>3.792458276556279</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.389990956159794</v>
+        <v>9.848348405483287</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.314446351460639</v>
+        <v>6.591578722734948</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.039224471283528</v>
+        <v>5.00511040266846</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.253323522484535</v>
+        <v>0.2757087741070104</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8234567528791256</v>
+        <v>0.8328386429434359</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3804282023251451</v>
+        <v>0.4164387592267184</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3827301917638521</v>
+        <v>0.3912060322826438</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.040408889757528</v>
+        <v>1.108522235356534</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.412920654646788</v>
+        <v>2.55817953665653</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.2256521792524214</v>
+        <v>-0.09439023212787739</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.475564734528094</v>
+        <v>-1.515306512162591</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.07588936386131169</v>
+        <v>0.08327168010072468</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1342276826998527</v>
+        <v>0.1474310973507306</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.01203815569594798</v>
+        <v>-0.005194121065054586</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.08190563946634058</v>
+        <v>-0.08382820211868108</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.414473657045632</v>
+        <v>4.520782258611498</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.314441720366239</v>
+        <v>6.498190867356904</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.628859757813482</v>
+        <v>3.795761184498107</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.95720338232621</v>
+        <v>1.871859980577785</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3880958919058426</v>
+        <v>0.3955020132755133</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4038303048706812</v>
+        <v>0.4129541034181015</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2288753262875701</v>
+        <v>0.2378638699364046</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.1228808425071478</v>
+        <v>0.1184428995840541</v>
       </c>
     </row>
     <row r="31">
